--- a/Gant chart.xlsx
+++ b/Gant chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l639\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l639\Documents\GitHub\SP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gant Chart (planned)" sheetId="1" r:id="rId1"/>
@@ -181,14 +181,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -488,25 +488,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -815,11 +815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,25 +832,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -932,6 +932,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -943,7 +944,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -982,6 +983,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -995,6 +997,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1008,6 +1011,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1161,10 +1165,10 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>41870</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>41873</v>
       </c>
     </row>
@@ -1175,10 +1179,10 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>41876</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>41878</v>
       </c>
     </row>
@@ -1189,16 +1193,16 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>41879</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>41883</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -1207,10 +1211,10 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>41870</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>41873</v>
       </c>
     </row>
@@ -1221,10 +1225,10 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>41876</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>41879</v>
       </c>
     </row>
@@ -1235,16 +1239,16 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>41880</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>41885</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -1253,10 +1257,10 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>41870</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>41873</v>
       </c>
     </row>
@@ -1267,10 +1271,10 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>41876</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>41879</v>
       </c>
     </row>
@@ -1281,10 +1285,10 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>41880</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>41885</v>
       </c>
     </row>

--- a/Gant chart.xlsx
+++ b/Gant chart.xlsx
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -189,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +820,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,6 +985,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -998,6 +1000,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1012,6 +1015,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1025,6 +1029,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1036,7 +1041,8 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1081,6 +1087,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">

--- a/Gant chart.xlsx
+++ b/Gant chart.xlsx
@@ -183,13 +183,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +476,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,25 +489,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -817,10 +817,10 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,25 +833,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -985,7 +985,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1016,6 +1016,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1029,7 +1031,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1041,8 +1043,9 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1054,6 +1057,7 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1065,6 +1069,7 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1076,6 +1081,7 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1088,8 +1094,10 @@
         <v>8</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1099,8 +1107,9 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1140,7 +1149,7 @@
   <dimension ref="D4:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gant chart.xlsx
+++ b/Gant chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gant Chart (planned)" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +817,10 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,229 +911,237 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>8</v>
+      </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A3:R19">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="D1:M1"/>

--- a/Gant chart.xlsx
+++ b/Gant chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gant Chart (planned)" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,6 +937,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -951,6 +953,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1022,6 +1026,7 @@
       <c r="I10" s="3"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1034,6 +1039,9 @@
         <v>11</v>
       </c>
       <c r="I11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1084,6 +1092,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="6"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1095,8 +1104,9 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1110,8 +1120,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1124,8 +1136,10 @@
       <c r="F18" s="7"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
